--- a/exercises/ch_11_exercises/ch_11_exercise_solutions.xlsx
+++ b/exercises/ch_11_exercises/ch_11_exercise_solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27419"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\modern-analytics-excel-book\exercise_solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\exercises\ch_11_exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9030DA92-4DC4-4391-8DCE-A1E647FA5ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E78238D-9D88-4671-8F47-9187DA4E69F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{3F2D9D4D-DA73-4889-A0CC-E5E5CFA50672}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" firstSheet="4" activeTab="5" xr2:uid="{3F2D9D4D-DA73-4889-A0CC-E5E5CFA50672}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -642,14 +642,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -694,7 +693,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ch_11_solutions.xlsx]life-expectancy_chart!PivotTable1</c:name>
+    <c:name>[ch_11_exercise_solutions.xlsx]life-expectancy_chart!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -758,6 +757,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -825,6 +827,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3769,7 +3812,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FBE6383-F6C5-40A6-AADE-25E4363F2A07}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FBE6383-F6C5-40A6-AADE-25E4363F2A07}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="C4:D17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3921,9 +3964,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3961,7 +4004,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4067,7 +4110,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4209,7 +4252,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4258,7 +4301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA64352-DDC3-470F-AB72-BEFAE852D055}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <sheetData>
@@ -4315,7 +4358,7 @@
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="1">
       <c r="A1" s="2" t="s">
         <v>155</v>
       </c>
@@ -4326,7 +4369,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -4337,7 +4380,7 @@
         <v>2.3198486815090301E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="400.5" x14ac:dyDescent="1">
+    <row r="3" spans="1:3" ht="400.5" x14ac:dyDescent="1">
       <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
@@ -4348,7 +4391,7 @@
         <v>0.91656875610351596</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="367.15" x14ac:dyDescent="1">
+    <row r="4" spans="1:3" ht="367.15" x14ac:dyDescent="1">
       <c r="A4" s="2" t="s">
         <v>150</v>
       </c>
@@ -4359,7 +4402,7 @@
         <v>2.0807296968996499E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="300.39999999999998" x14ac:dyDescent="1">
+    <row r="5" spans="1:3" ht="300.39999999999998" x14ac:dyDescent="1">
       <c r="A5" s="2" t="s">
         <v>149</v>
       </c>
@@ -4370,7 +4413,7 @@
         <v>0.999251008033752</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A6" s="2" t="s">
         <v>148</v>
       </c>
@@ -4381,7 +4424,7 @@
         <v>0.61183273792266801</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="267" x14ac:dyDescent="1">
+    <row r="7" spans="1:3" ht="267" x14ac:dyDescent="1">
       <c r="A7" s="2" t="s">
         <v>147</v>
       </c>
@@ -4392,7 +4435,7 @@
         <v>1.0445261374115901E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="300.39999999999998" x14ac:dyDescent="1">
+    <row r="8" spans="1:3" ht="300.39999999999998" x14ac:dyDescent="1">
       <c r="A8" s="2" t="s">
         <v>146</v>
       </c>
@@ -4403,7 +4446,7 @@
         <v>0.57524561882018999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="367.15" x14ac:dyDescent="1">
+    <row r="9" spans="1:3" ht="367.15" x14ac:dyDescent="1">
       <c r="A9" s="2" t="s">
         <v>145</v>
       </c>
@@ -4414,7 +4457,7 @@
         <v>1.3206225412432099E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="267" x14ac:dyDescent="1">
+    <row r="10" spans="1:3" ht="267" x14ac:dyDescent="1">
       <c r="A10" s="2" t="s">
         <v>144</v>
       </c>
@@ -4425,7 +4468,7 @@
         <v>8.5939364507794398E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="66.75" x14ac:dyDescent="1">
+    <row r="11" spans="1:3" ht="66.75" x14ac:dyDescent="1">
       <c r="A11" s="2" t="s">
         <v>143</v>
       </c>
@@ -4436,7 +4479,7 @@
         <v>0.99943089485168501</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="233.65" x14ac:dyDescent="1">
+    <row r="12" spans="1:3" ht="233.65" x14ac:dyDescent="1">
       <c r="A12" s="2" t="s">
         <v>142</v>
       </c>
@@ -4447,7 +4490,7 @@
         <v>0.14295527338981601</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="367.15" x14ac:dyDescent="1">
+    <row r="13" spans="1:3" ht="367.15" x14ac:dyDescent="1">
       <c r="A13" s="2" t="s">
         <v>141</v>
       </c>
@@ -4458,7 +4501,7 @@
         <v>7.9210642725229298E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A14" s="2" t="s">
         <v>140</v>
       </c>
@@ -4469,7 +4512,7 @@
         <v>3.0308959539979701E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="267" x14ac:dyDescent="1">
+    <row r="15" spans="1:3" ht="267" x14ac:dyDescent="1">
       <c r="A15" s="2" t="s">
         <v>139</v>
       </c>
@@ -4480,7 +4523,7 @@
         <v>1.26803831790312E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="133.5" x14ac:dyDescent="1">
+    <row r="16" spans="1:3" ht="133.5" x14ac:dyDescent="1">
       <c r="A16" s="2" t="s">
         <v>138</v>
       </c>
@@ -4491,7 +4534,7 @@
         <v>8.3596535027027102E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="333.75" x14ac:dyDescent="1">
+    <row r="17" spans="1:3" ht="333.75" x14ac:dyDescent="1">
       <c r="A17" s="2" t="s">
         <v>137</v>
       </c>
@@ -4502,7 +4545,7 @@
         <v>0.10092993080616</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="267" x14ac:dyDescent="1">
+    <row r="18" spans="1:3" ht="267" x14ac:dyDescent="1">
       <c r="A18" s="2" t="s">
         <v>136</v>
       </c>
@@ -4513,7 +4556,7 @@
         <v>1.2573099229484799E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
@@ -4524,7 +4567,7 @@
         <v>2.9536726651713301E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" ht="267" x14ac:dyDescent="1">
+    <row r="20" spans="1:3" ht="267" x14ac:dyDescent="1">
       <c r="A20" s="2" t="s">
         <v>134</v>
       </c>
@@ -4535,7 +4578,7 @@
         <v>5.6188632734119901E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" ht="300.39999999999998" x14ac:dyDescent="1">
+    <row r="21" spans="1:3" ht="300.39999999999998" x14ac:dyDescent="1">
       <c r="A21" s="2" t="s">
         <v>133</v>
       </c>
@@ -4546,7 +4589,7 @@
         <v>4.9722518771886798E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A22" s="2" t="s">
         <v>132</v>
       </c>
@@ -4557,7 +4600,7 @@
         <v>0.98505699634552002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" ht="400.5" x14ac:dyDescent="1">
+    <row r="23" spans="1:3" ht="400.5" x14ac:dyDescent="1">
       <c r="A23" s="2" t="s">
         <v>131</v>
       </c>
@@ -4568,7 +4611,7 @@
         <v>7.56567533244379E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" ht="133.5" x14ac:dyDescent="1">
+    <row r="24" spans="1:3" ht="133.5" x14ac:dyDescent="1">
       <c r="A24" s="2" t="s">
         <v>130</v>
       </c>
@@ -4579,7 +4622,7 @@
         <v>0.72634792327880904</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="25" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A25" s="2" t="s">
         <v>129</v>
       </c>
@@ -4590,7 +4633,7 @@
         <v>3.0315604526549599E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="333.75" x14ac:dyDescent="1">
+    <row r="26" spans="1:3" ht="333.75" x14ac:dyDescent="1">
       <c r="A26" s="2" t="s">
         <v>128</v>
       </c>
@@ -4601,7 +4644,7 @@
         <v>7.9407938756048701E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="300.39999999999998" x14ac:dyDescent="1">
+    <row r="27" spans="1:3" ht="267" x14ac:dyDescent="1">
       <c r="A27" s="2" t="s">
         <v>127</v>
       </c>
@@ -4612,7 +4655,7 @@
         <v>5.4626263678073897E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="28" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A28" s="2" t="s">
         <v>126</v>
       </c>
@@ -4623,7 +4666,7 @@
         <v>6.7194298480899295E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="333.75" x14ac:dyDescent="1">
+    <row r="29" spans="1:3" ht="333.75" x14ac:dyDescent="1">
       <c r="A29" s="2" t="s">
         <v>125</v>
       </c>
@@ -4634,7 +4677,7 @@
         <v>1.24739250168204E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" ht="267" x14ac:dyDescent="1">
+    <row r="30" spans="1:3" ht="267" x14ac:dyDescent="1">
       <c r="A30" s="2" t="s">
         <v>124</v>
       </c>
@@ -4645,7 +4688,7 @@
         <v>2.16363463550806E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="31" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A31" s="2" t="s">
         <v>123</v>
       </c>
@@ -4656,7 +4699,7 @@
         <v>7.0750211307313293E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="32" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A32" s="2" t="s">
         <v>122</v>
       </c>
@@ -4667,7 +4710,7 @@
         <v>1.5119567979127201E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="33" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A33" s="2" t="s">
         <v>121</v>
       </c>
@@ -4678,7 +4721,7 @@
         <v>0.37549155950546298</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="233.65" x14ac:dyDescent="1">
+    <row r="34" spans="1:3" ht="233.65" x14ac:dyDescent="1">
       <c r="A34" s="2" t="s">
         <v>120</v>
       </c>
@@ -4689,7 +4732,7 @@
         <v>8.1674531102180498E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="35" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A35" s="2" t="s">
         <v>119</v>
       </c>
@@ -4700,7 +4743,7 @@
         <v>4.7237204853445302E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="36" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A36" s="2" t="s">
         <v>118</v>
       </c>
@@ -4711,7 +4754,7 @@
         <v>2.6860002435569198E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="37" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -4722,7 +4765,7 @@
         <v>9.0471345970399905E-8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="200.25" x14ac:dyDescent="1">
+    <row r="38" spans="1:3" ht="200.25" x14ac:dyDescent="1">
       <c r="A38" s="2" t="s">
         <v>116</v>
       </c>
@@ -4733,7 +4776,7 @@
         <v>1.3493921607732801E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -4744,7 +4787,7 @@
         <v>5.4460018873214701E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="233.65" x14ac:dyDescent="1">
+    <row r="40" spans="1:3" ht="233.65" x14ac:dyDescent="1">
       <c r="A40" s="2" t="s">
         <v>114</v>
       </c>
@@ -4755,7 +4798,7 @@
         <v>0.10942611843347499</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="41" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A41" s="2" t="s">
         <v>113</v>
       </c>
@@ -4766,7 +4809,7 @@
         <v>1.9990514963865301E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="267" x14ac:dyDescent="1">
+    <row r="42" spans="1:3" ht="267" x14ac:dyDescent="1">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -4777,7 +4820,7 @@
         <v>7.6366588473319993E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="43" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A43" s="2" t="s">
         <v>111</v>
       </c>
@@ -4788,7 +4831,7 @@
         <v>0.99999600648880005</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="367.15" x14ac:dyDescent="1">
+    <row r="44" spans="1:3" ht="367.15" x14ac:dyDescent="1">
       <c r="A44" s="2" t="s">
         <v>110</v>
       </c>
@@ -4799,7 +4842,7 @@
         <v>1.0615119663270899E-6</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="45" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
@@ -4810,7 +4853,7 @@
         <v>0.47175574302673301</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="367.15" x14ac:dyDescent="1">
+    <row r="46" spans="1:3" ht="367.15" x14ac:dyDescent="1">
       <c r="A46" s="2" t="s">
         <v>107</v>
       </c>
@@ -4821,7 +4864,7 @@
         <v>3.3441324376326499E-6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="47" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A47" s="2" t="s">
         <v>106</v>
       </c>
@@ -4832,7 +4875,7 @@
         <v>0.99345421791076705</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="166.9" x14ac:dyDescent="1">
+    <row r="48" spans="1:3" ht="166.9" x14ac:dyDescent="1">
       <c r="A48" s="2" t="s">
         <v>105</v>
       </c>
@@ -4843,7 +4886,7 @@
         <v>0.89192539453506503</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="367.15" x14ac:dyDescent="1">
+    <row r="49" spans="1:3" ht="333.75" x14ac:dyDescent="1">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -4854,7 +4897,7 @@
         <v>7.3607143713161295E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="50" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A50" s="2" t="s">
         <v>103</v>
       </c>
@@ -4865,7 +4908,7 @@
         <v>2.9267759327211698E-9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="233.65" x14ac:dyDescent="1">
+    <row r="51" spans="1:3" ht="233.65" x14ac:dyDescent="1">
       <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
@@ -4876,7 +4919,7 @@
         <v>0.39939269423484802</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="52" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A52" s="2" t="s">
         <v>101</v>
       </c>
@@ -4887,7 +4930,7 @@
         <v>7.35526233911514E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A53" s="2" t="s">
         <v>100</v>
       </c>
@@ -4898,7 +4941,7 @@
         <v>4.3463032852741898E-6</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="367.15" x14ac:dyDescent="1">
+    <row r="54" spans="1:3" ht="367.15" x14ac:dyDescent="1">
       <c r="A54" s="2" t="s">
         <v>99</v>
       </c>
@@ -4909,7 +4952,7 @@
         <v>0.99365961551666304</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" ht="166.9" x14ac:dyDescent="1">
+    <row r="55" spans="1:3" ht="166.9" x14ac:dyDescent="1">
       <c r="A55" s="2" t="s">
         <v>98</v>
       </c>
@@ -4920,7 +4963,7 @@
         <v>2.80642341822386E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="56" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A56" s="2" t="s">
         <v>97</v>
       </c>
@@ -4931,7 +4974,7 @@
         <v>8.8676679879427008E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -4942,7 +4985,7 @@
         <v>9.0992478362750303E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="58" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -4953,7 +4996,7 @@
         <v>0.121093735098839</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" ht="367.15" x14ac:dyDescent="1">
+    <row r="59" spans="1:3" ht="367.15" x14ac:dyDescent="1">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -4964,7 +5007,7 @@
         <v>2.15473352000117E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="60" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A60" s="2" t="s">
         <v>93</v>
       </c>
@@ -4975,7 +5018,7 @@
         <v>0.99448847770690896</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="61" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A61" s="2" t="s">
         <v>92</v>
       </c>
@@ -4986,7 +5029,7 @@
         <v>6.1608631085619002E-7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" ht="367.15" x14ac:dyDescent="1">
+    <row r="62" spans="1:3" ht="367.15" x14ac:dyDescent="1">
       <c r="A62" s="2" t="s">
         <v>91</v>
       </c>
@@ -4997,7 +5040,7 @@
         <v>2.1545670847444901E-7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" ht="367.15" x14ac:dyDescent="1">
+    <row r="63" spans="1:3" ht="367.15" x14ac:dyDescent="1">
       <c r="A63" s="2" t="s">
         <v>90</v>
       </c>
@@ -5008,7 +5051,7 @@
         <v>2.92926956899464E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" ht="200.25" x14ac:dyDescent="1">
+    <row r="64" spans="1:3" ht="200.25" x14ac:dyDescent="1">
       <c r="A64" s="2" t="s">
         <v>89</v>
       </c>
@@ -5019,7 +5062,7 @@
         <v>0.37782931327819802</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" ht="133.5" x14ac:dyDescent="1">
+    <row r="65" spans="1:3" ht="133.5" x14ac:dyDescent="1">
       <c r="A65" s="2" t="s">
         <v>88</v>
       </c>
@@ -5030,7 +5073,7 @@
         <v>3.63843441009521E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="66" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A66" s="2" t="s">
         <v>87</v>
       </c>
@@ -5041,7 +5084,7 @@
         <v>2.9057564461254501E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A67" s="2" t="s">
         <v>86</v>
       </c>
@@ -5052,7 +5095,7 @@
         <v>8.9955039322376307E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="68" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A68" s="2" t="s">
         <v>85</v>
       </c>
@@ -5063,7 +5106,7 @@
         <v>9.4208517111837905E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" ht="300.39999999999998" x14ac:dyDescent="1">
+    <row r="69" spans="1:3" ht="300.39999999999998" x14ac:dyDescent="1">
       <c r="A69" s="2" t="s">
         <v>84</v>
       </c>
@@ -5074,7 +5117,7 @@
         <v>1.6663027054164599E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A70" s="2" t="s">
         <v>83</v>
       </c>
@@ -5085,7 +5128,7 @@
         <v>6.9751017406360902E-8</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="71" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A71" s="2" t="s">
         <v>82</v>
       </c>
@@ -5096,7 +5139,7 @@
         <v>1.9689714536070802E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="72" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A72" s="2" t="s">
         <v>81</v>
       </c>
@@ -5107,7 +5150,7 @@
         <v>0.75748348236083995</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="73" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A73" s="2" t="s">
         <v>80</v>
       </c>
@@ -5118,7 +5161,7 @@
         <v>1.55994202941656E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="74" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
@@ -5129,7 +5172,7 @@
         <v>8.4174977382645E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="1" customFormat="1" ht="400.5" x14ac:dyDescent="1">
+    <row r="75" spans="1:3" ht="400.5" x14ac:dyDescent="1">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
@@ -5140,7 +5183,7 @@
         <v>6.5908342599868802E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
@@ -5151,7 +5194,7 @@
         <v>0.93334305286407504</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="1" customFormat="1" ht="300.39999999999998" x14ac:dyDescent="1">
+    <row r="77" spans="1:3" ht="300.39999999999998" x14ac:dyDescent="1">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -5162,7 +5205,7 @@
         <v>1.5407595783472099E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="78" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
@@ -5173,7 +5216,7 @@
         <v>4.6894831029931097E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="79" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A79" s="2" t="s">
         <v>74</v>
       </c>
@@ -5184,7 +5227,7 @@
         <v>1.2277471832931001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="1" customFormat="1" ht="333.75" x14ac:dyDescent="1">
+    <row r="80" spans="1:3" ht="333.75" x14ac:dyDescent="1">
       <c r="A80" s="2" t="s">
         <v>73</v>
       </c>
@@ -5195,7 +5238,7 @@
         <v>3.0844537541270301E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="81" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A81" s="2" t="s">
         <v>72</v>
       </c>
@@ -5206,7 +5249,7 @@
         <v>0.88348180055618297</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="1" customFormat="1" ht="367.15" x14ac:dyDescent="1">
+    <row r="82" spans="1:3" ht="367.15" x14ac:dyDescent="1">
       <c r="A82" s="2" t="s">
         <v>71</v>
       </c>
@@ -5217,7 +5260,7 @@
         <v>0.36365702748298601</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="1" customFormat="1" ht="333.75" x14ac:dyDescent="1">
+    <row r="83" spans="1:3" ht="333.75" x14ac:dyDescent="1">
       <c r="A83" s="2" t="s">
         <v>70</v>
       </c>
@@ -5228,7 +5271,7 @@
         <v>7.7098561450838999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="84" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A84" s="2" t="s">
         <v>69</v>
       </c>
@@ -5239,7 +5282,7 @@
         <v>1.5412928178193399E-6</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="85" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A85" s="2" t="s">
         <v>68</v>
       </c>
@@ -5250,7 +5293,7 @@
         <v>2.2442995941673901E-6</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="1" customFormat="1" ht="166.9" x14ac:dyDescent="1">
+    <row r="86" spans="1:3" ht="166.9" x14ac:dyDescent="1">
       <c r="A86" s="2" t="s">
         <v>67</v>
       </c>
@@ -5261,7 +5304,7 @@
         <v>9.8272236064076406E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="1" customFormat="1" ht="300.39999999999998" x14ac:dyDescent="1">
+    <row r="87" spans="1:3" ht="300.39999999999998" x14ac:dyDescent="1">
       <c r="A87" s="2" t="s">
         <v>66</v>
       </c>
@@ -5272,7 +5315,7 @@
         <v>4.1945654061237302E-7</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="88" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A88" s="2" t="s">
         <v>65</v>
       </c>
@@ -5283,7 +5326,7 @@
         <v>5.9858189160877405E-7</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="1" customFormat="1" ht="300.39999999999998" x14ac:dyDescent="1">
+    <row r="89" spans="1:3" ht="300.39999999999998" x14ac:dyDescent="1">
       <c r="A89" s="2" t="s">
         <v>64</v>
       </c>
@@ -5294,7 +5337,7 @@
         <v>1.81224058906082E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="90" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A90" s="2" t="s">
         <v>63</v>
       </c>
@@ -5305,7 +5348,7 @@
         <v>3.2428072299808298E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="91" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A91" s="2" t="s">
         <v>62</v>
       </c>
@@ -5316,7 +5359,7 @@
         <v>4.3391641229391098E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="1" customFormat="1" ht="400.5" x14ac:dyDescent="1">
+    <row r="92" spans="1:3" ht="400.5" x14ac:dyDescent="1">
       <c r="A92" s="2" t="s">
         <v>61</v>
       </c>
@@ -5327,7 +5370,7 @@
         <v>0.91614019870758101</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="93" spans="1:3" ht="400.5" x14ac:dyDescent="1">
       <c r="A93" s="2" t="s">
         <v>60</v>
       </c>
@@ -5338,7 +5381,7 @@
         <v>3.4972973167896299E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="94" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A94" s="2" t="s">
         <v>59</v>
       </c>
@@ -5349,7 +5392,7 @@
         <v>6.7721508443355602E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="95" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A95" s="2" t="s">
         <v>58</v>
       </c>
@@ -5360,7 +5403,7 @@
         <v>0.94881761074066195</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="1" customFormat="1" ht="333.75" x14ac:dyDescent="1">
+    <row r="96" spans="1:3" ht="333.75" x14ac:dyDescent="1">
       <c r="A96" s="2" t="s">
         <v>57</v>
       </c>
@@ -5371,7 +5414,7 @@
         <v>8.7305106222629505E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="97" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A97" s="2" t="s">
         <v>56</v>
       </c>
@@ -5382,7 +5425,7 @@
         <v>1.2085129128536199E-5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="98" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A98" s="2" t="s">
         <v>55</v>
       </c>
@@ -5393,7 +5436,7 @@
         <v>3.5623838812171E-7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="1" customFormat="1" ht="300.39999999999998" x14ac:dyDescent="1">
+    <row r="99" spans="1:3" ht="300.39999999999998" x14ac:dyDescent="1">
       <c r="A99" s="2" t="s">
         <v>54</v>
       </c>
@@ -5404,7 +5447,7 @@
         <v>1.71991821844131E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="1" customFormat="1" ht="400.5" x14ac:dyDescent="1">
+    <row r="100" spans="1:3" ht="400.5" x14ac:dyDescent="1">
       <c r="A100" s="2" t="s">
         <v>53</v>
       </c>
@@ -5415,7 +5458,7 @@
         <v>5.0391518743708697E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="1">
+    <row r="101" spans="1:3" ht="409.5" x14ac:dyDescent="1">
       <c r="A101" s="2" t="s">
         <v>51</v>
       </c>
@@ -6898,10 +6941,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2">
@@ -6909,10 +6952,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3">
@@ -6920,10 +6963,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4">
@@ -6931,10 +6974,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
       <c r="C5">
@@ -6942,10 +6985,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6">
@@ -6953,10 +6996,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
       <c r="C7">
@@ -6964,10 +7007,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
       <c r="C8">
@@ -6975,10 +7018,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9">
@@ -6986,10 +7029,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10">
@@ -6997,10 +7040,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11">
@@ -7008,10 +7051,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>42</v>
       </c>
       <c r="C12">
@@ -7019,10 +7062,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13">
@@ -7030,10 +7073,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14">
@@ -7041,10 +7084,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15">
@@ -7052,10 +7095,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16">
@@ -7063,10 +7106,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17">
@@ -7074,10 +7117,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18">
@@ -7085,10 +7128,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19">
@@ -7096,10 +7139,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20">
@@ -7107,10 +7150,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21">
@@ -7118,10 +7161,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22">
@@ -7129,10 +7172,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23">
@@ -7140,10 +7183,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24">
@@ -7151,10 +7194,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25">
@@ -7162,10 +7205,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26">
@@ -7173,10 +7216,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27">
@@ -7184,10 +7227,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28">
@@ -7195,10 +7238,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29">
@@ -7206,10 +7249,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30">
@@ -7217,10 +7260,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>37</v>
       </c>
       <c r="C31">
@@ -7228,10 +7271,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32">
@@ -7239,10 +7282,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33">
@@ -7250,10 +7293,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34">
@@ -7261,10 +7304,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>41</v>
       </c>
       <c r="C35">
@@ -7272,10 +7315,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>42</v>
       </c>
       <c r="C36">
@@ -7283,10 +7326,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>43</v>
       </c>
       <c r="C37">
@@ -7294,10 +7337,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>32</v>
       </c>
       <c r="C38">
@@ -7305,10 +7348,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>33</v>
       </c>
       <c r="C39">
@@ -7316,10 +7359,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>34</v>
       </c>
       <c r="C40">
@@ -7327,10 +7370,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>35</v>
       </c>
       <c r="C41">
@@ -7338,10 +7381,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A42" s="4" t="s">
+      <c r="A42" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>36</v>
       </c>
       <c r="C42">
@@ -7349,10 +7392,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A43" s="4" t="s">
+      <c r="A43" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>37</v>
       </c>
       <c r="C43">
@@ -7360,10 +7403,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A44" s="4" t="s">
+      <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>38</v>
       </c>
       <c r="C44">
@@ -7371,10 +7414,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>39</v>
       </c>
       <c r="C45">
@@ -7382,10 +7425,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A46" s="4" t="s">
+      <c r="A46" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>40</v>
       </c>
       <c r="C46">
@@ -7393,10 +7436,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>41</v>
       </c>
       <c r="C47">
@@ -7404,10 +7447,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>42</v>
       </c>
       <c r="C48">
@@ -7415,10 +7458,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>43</v>
       </c>
       <c r="C49">
@@ -7426,10 +7469,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>32</v>
       </c>
       <c r="C50">
@@ -7437,10 +7480,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>33</v>
       </c>
       <c r="C51">
@@ -7448,10 +7491,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A52" s="4" t="s">
+      <c r="A52" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>34</v>
       </c>
       <c r="C52">
@@ -7459,10 +7502,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A53" s="4" t="s">
+      <c r="A53" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>35</v>
       </c>
       <c r="C53">
@@ -7470,10 +7513,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="s">
         <v>36</v>
       </c>
       <c r="C54">
@@ -7481,10 +7524,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" t="s">
         <v>37</v>
       </c>
       <c r="C55">
@@ -7492,10 +7535,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A56" s="4" t="s">
+      <c r="A56" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="s">
         <v>38</v>
       </c>
       <c r="C56">
@@ -7503,10 +7546,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A57" s="4" t="s">
+      <c r="A57" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>39</v>
       </c>
       <c r="C57">
@@ -7514,10 +7557,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A58" s="4" t="s">
+      <c r="A58" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>40</v>
       </c>
       <c r="C58">
@@ -7525,10 +7568,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A59" s="4" t="s">
+      <c r="A59" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="s">
         <v>41</v>
       </c>
       <c r="C59">
@@ -7536,10 +7579,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A60" s="4" t="s">
+      <c r="A60" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
         <v>42</v>
       </c>
       <c r="C60">
@@ -7547,10 +7590,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A61" s="4" t="s">
+      <c r="A61" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>43</v>
       </c>
       <c r="C61">
@@ -7558,10 +7601,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A62" s="4" t="s">
+      <c r="A62" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="s">
         <v>32</v>
       </c>
       <c r="C62">
@@ -7569,10 +7612,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A63" s="4" t="s">
+      <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>33</v>
       </c>
       <c r="C63">
@@ -7580,10 +7623,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A64" s="4" t="s">
+      <c r="A64" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" t="s">
         <v>34</v>
       </c>
       <c r="C64">
@@ -7591,10 +7634,10 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A65" s="4" t="s">
+      <c r="A65" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" t="s">
         <v>35</v>
       </c>
       <c r="C65">
@@ -7602,10 +7645,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A66" s="4" t="s">
+      <c r="A66" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" t="s">
         <v>36</v>
       </c>
       <c r="C66">
@@ -7613,10 +7656,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A67" s="4" t="s">
+      <c r="A67" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="s">
         <v>37</v>
       </c>
       <c r="C67">
@@ -7624,10 +7667,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A68" s="4" t="s">
+      <c r="A68" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" t="s">
         <v>38</v>
       </c>
       <c r="C68">
@@ -7635,10 +7678,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A69" s="4" t="s">
+      <c r="A69" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="s">
         <v>39</v>
       </c>
       <c r="C69">
@@ -7646,10 +7689,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A70" s="4" t="s">
+      <c r="A70" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" t="s">
         <v>40</v>
       </c>
       <c r="C70">
@@ -7657,10 +7700,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A71" s="4" t="s">
+      <c r="A71" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>41</v>
       </c>
       <c r="C71">
@@ -7668,10 +7711,10 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A72" s="4" t="s">
+      <c r="A72" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" t="s">
         <v>42</v>
       </c>
       <c r="C72">
@@ -7679,10 +7722,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A73" s="4" t="s">
+      <c r="A73" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="s">
         <v>43</v>
       </c>
       <c r="C73">
@@ -7690,10 +7733,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A74" s="4" t="s">
+      <c r="A74" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" t="s">
         <v>32</v>
       </c>
       <c r="C74">
@@ -7701,10 +7744,10 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A75" s="4" t="s">
+      <c r="A75" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" t="s">
         <v>33</v>
       </c>
       <c r="C75">
@@ -7712,10 +7755,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A76" s="4" t="s">
+      <c r="A76" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" t="s">
         <v>34</v>
       </c>
       <c r="C76">
@@ -7723,10 +7766,10 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A77" s="4" t="s">
+      <c r="A77" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" t="s">
         <v>35</v>
       </c>
       <c r="C77">
@@ -7734,10 +7777,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A78" s="4" t="s">
+      <c r="A78" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" t="s">
         <v>36</v>
       </c>
       <c r="C78">
@@ -7745,10 +7788,10 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A79" s="4" t="s">
+      <c r="A79" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
         <v>37</v>
       </c>
       <c r="C79">
@@ -7756,10 +7799,10 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A80" s="4" t="s">
+      <c r="A80" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="s">
         <v>38</v>
       </c>
       <c r="C80">
@@ -7767,10 +7810,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A81" s="4" t="s">
+      <c r="A81" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" t="s">
         <v>39</v>
       </c>
       <c r="C81">
@@ -7778,10 +7821,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A82" s="4" t="s">
+      <c r="A82" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="s">
         <v>40</v>
       </c>
       <c r="C82">
@@ -7789,10 +7832,10 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A83" s="4" t="s">
+      <c r="A83" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" t="s">
         <v>41</v>
       </c>
       <c r="C83">
@@ -7800,10 +7843,10 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A84" s="4" t="s">
+      <c r="A84" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" t="s">
         <v>42</v>
       </c>
       <c r="C84">
@@ -7811,10 +7854,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A85" s="4" t="s">
+      <c r="A85" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" t="s">
         <v>43</v>
       </c>
       <c r="C85">
@@ -7822,10 +7865,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A86" s="4" t="s">
+      <c r="A86" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" t="s">
         <v>32</v>
       </c>
       <c r="C86">
@@ -7833,10 +7876,10 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A87" s="4" t="s">
+      <c r="A87" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" t="s">
         <v>33</v>
       </c>
       <c r="C87">
@@ -7844,10 +7887,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A88" s="4" t="s">
+      <c r="A88" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" t="s">
         <v>34</v>
       </c>
       <c r="C88">
@@ -7855,10 +7898,10 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A89" s="4" t="s">
+      <c r="A89" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" t="s">
         <v>35</v>
       </c>
       <c r="C89">
@@ -7866,10 +7909,10 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A90" s="4" t="s">
+      <c r="A90" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" t="s">
         <v>36</v>
       </c>
       <c r="C90">
@@ -7877,10 +7920,10 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A91" s="4" t="s">
+      <c r="A91" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" t="s">
         <v>37</v>
       </c>
       <c r="C91">
@@ -7888,10 +7931,10 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A92" s="4" t="s">
+      <c r="A92" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" t="s">
         <v>38</v>
       </c>
       <c r="C92">
@@ -7899,10 +7942,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A93" s="4" t="s">
+      <c r="A93" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="s">
         <v>39</v>
       </c>
       <c r="C93">
@@ -7910,10 +7953,10 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A94" s="4" t="s">
+      <c r="A94" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" t="s">
         <v>40</v>
       </c>
       <c r="C94">
@@ -7921,10 +7964,10 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A95" s="4" t="s">
+      <c r="A95" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" t="s">
         <v>41</v>
       </c>
       <c r="C95">
@@ -7932,10 +7975,10 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A96" s="4" t="s">
+      <c r="A96" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" t="s">
         <v>42</v>
       </c>
       <c r="C96">
@@ -7943,10 +7986,10 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A97" s="4" t="s">
+      <c r="A97" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" t="s">
         <v>43</v>
       </c>
       <c r="C97">
@@ -7954,10 +7997,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A98" s="4" t="s">
+      <c r="A98" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" t="s">
         <v>32</v>
       </c>
       <c r="C98">
@@ -7965,10 +8008,10 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A99" s="4" t="s">
+      <c r="A99" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" t="s">
         <v>33</v>
       </c>
       <c r="C99">
@@ -7976,10 +8019,10 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A100" s="4" t="s">
+      <c r="A100" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" t="s">
         <v>34</v>
       </c>
       <c r="C100">
@@ -7987,10 +8030,10 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A101" s="4" t="s">
+      <c r="A101" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" t="s">
         <v>35</v>
       </c>
       <c r="C101">
@@ -7998,10 +8041,10 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A102" s="4" t="s">
+      <c r="A102" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" t="s">
         <v>36</v>
       </c>
       <c r="C102">
@@ -8009,10 +8052,10 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A103" s="4" t="s">
+      <c r="A103" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" t="s">
         <v>37</v>
       </c>
       <c r="C103">
@@ -8020,10 +8063,10 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A104" s="4" t="s">
+      <c r="A104" t="s">
         <v>9</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" t="s">
         <v>38</v>
       </c>
       <c r="C104">
@@ -8031,10 +8074,10 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A105" s="4" t="s">
+      <c r="A105" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" t="s">
         <v>39</v>
       </c>
       <c r="C105">
@@ -8042,10 +8085,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A106" s="4" t="s">
+      <c r="A106" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" t="s">
         <v>40</v>
       </c>
       <c r="C106">
@@ -8053,10 +8096,10 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A107" s="4" t="s">
+      <c r="A107" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" t="s">
         <v>41</v>
       </c>
       <c r="C107">
@@ -8064,10 +8107,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A108" s="4" t="s">
+      <c r="A108" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" t="s">
         <v>42</v>
       </c>
       <c r="C108">
@@ -8075,10 +8118,10 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A109" s="4" t="s">
+      <c r="A109" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" t="s">
         <v>43</v>
       </c>
       <c r="C109">
@@ -8086,10 +8129,10 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A110" s="4" t="s">
+      <c r="A110" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" t="s">
         <v>32</v>
       </c>
       <c r="C110">
@@ -8097,10 +8140,10 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A111" s="4" t="s">
+      <c r="A111" t="s">
         <v>10</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" t="s">
         <v>33</v>
       </c>
       <c r="C111">
@@ -8108,10 +8151,10 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A112" s="4" t="s">
+      <c r="A112" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" t="s">
         <v>34</v>
       </c>
       <c r="C112">
@@ -8119,10 +8162,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A113" s="4" t="s">
+      <c r="A113" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" t="s">
         <v>35</v>
       </c>
       <c r="C113">
@@ -8130,10 +8173,10 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A114" s="4" t="s">
+      <c r="A114" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" t="s">
         <v>36</v>
       </c>
       <c r="C114">
@@ -8141,10 +8184,10 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A115" s="4" t="s">
+      <c r="A115" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" t="s">
         <v>37</v>
       </c>
       <c r="C115">
@@ -8152,10 +8195,10 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A116" s="4" t="s">
+      <c r="A116" t="s">
         <v>10</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" t="s">
         <v>38</v>
       </c>
       <c r="C116">
@@ -8163,10 +8206,10 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A117" s="4" t="s">
+      <c r="A117" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" t="s">
         <v>39</v>
       </c>
       <c r="C117">
@@ -8174,10 +8217,10 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A118" s="4" t="s">
+      <c r="A118" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" t="s">
         <v>40</v>
       </c>
       <c r="C118">
@@ -8185,10 +8228,10 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A119" s="4" t="s">
+      <c r="A119" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" t="s">
         <v>41</v>
       </c>
       <c r="C119">
@@ -8196,10 +8239,10 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A120" s="4" t="s">
+      <c r="A120" t="s">
         <v>10</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" t="s">
         <v>42</v>
       </c>
       <c r="C120">
@@ -8207,10 +8250,10 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A121" s="4" t="s">
+      <c r="A121" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" t="s">
         <v>43</v>
       </c>
       <c r="C121">
@@ -8218,10 +8261,10 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A122" s="4" t="s">
+      <c r="A122" t="s">
         <v>11</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" t="s">
         <v>32</v>
       </c>
       <c r="C122">
@@ -8229,10 +8272,10 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A123" s="4" t="s">
+      <c r="A123" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" t="s">
         <v>33</v>
       </c>
       <c r="C123">
@@ -8240,10 +8283,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A124" s="4" t="s">
+      <c r="A124" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" t="s">
         <v>34</v>
       </c>
       <c r="C124">
@@ -8251,10 +8294,10 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A125" s="4" t="s">
+      <c r="A125" t="s">
         <v>11</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" t="s">
         <v>35</v>
       </c>
       <c r="C125">
@@ -8262,10 +8305,10 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A126" s="4" t="s">
+      <c r="A126" t="s">
         <v>11</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" t="s">
         <v>36</v>
       </c>
       <c r="C126">
@@ -8273,10 +8316,10 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A127" s="4" t="s">
+      <c r="A127" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" t="s">
         <v>37</v>
       </c>
       <c r="C127">
@@ -8284,10 +8327,10 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A128" s="4" t="s">
+      <c r="A128" t="s">
         <v>11</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" t="s">
         <v>38</v>
       </c>
       <c r="C128">
@@ -8295,10 +8338,10 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A129" s="4" t="s">
+      <c r="A129" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" t="s">
         <v>39</v>
       </c>
       <c r="C129">
@@ -8306,10 +8349,10 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A130" s="4" t="s">
+      <c r="A130" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" t="s">
         <v>40</v>
       </c>
       <c r="C130">
@@ -8317,10 +8360,10 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A131" s="4" t="s">
+      <c r="A131" t="s">
         <v>11</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" t="s">
         <v>41</v>
       </c>
       <c r="C131">
@@ -8328,10 +8371,10 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A132" s="4" t="s">
+      <c r="A132" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" t="s">
         <v>42</v>
       </c>
       <c r="C132">
@@ -8339,10 +8382,10 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A133" s="4" t="s">
+      <c r="A133" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" t="s">
         <v>43</v>
       </c>
       <c r="C133">
@@ -8350,10 +8393,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A134" s="4" t="s">
+      <c r="A134" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" t="s">
         <v>32</v>
       </c>
       <c r="C134">
@@ -8361,10 +8404,10 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A135" s="4" t="s">
+      <c r="A135" t="s">
         <v>12</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" t="s">
         <v>33</v>
       </c>
       <c r="C135">
@@ -8372,10 +8415,10 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A136" s="4" t="s">
+      <c r="A136" t="s">
         <v>12</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" t="s">
         <v>34</v>
       </c>
       <c r="C136">
@@ -8383,10 +8426,10 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A137" s="4" t="s">
+      <c r="A137" t="s">
         <v>12</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" t="s">
         <v>35</v>
       </c>
       <c r="C137">
@@ -8394,10 +8437,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A138" s="4" t="s">
+      <c r="A138" t="s">
         <v>12</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" t="s">
         <v>36</v>
       </c>
       <c r="C138">
@@ -8405,10 +8448,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A139" s="4" t="s">
+      <c r="A139" t="s">
         <v>12</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" t="s">
         <v>37</v>
       </c>
       <c r="C139">
@@ -8416,10 +8459,10 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A140" s="4" t="s">
+      <c r="A140" t="s">
         <v>12</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" t="s">
         <v>38</v>
       </c>
       <c r="C140">
@@ -8427,10 +8470,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A141" s="4" t="s">
+      <c r="A141" t="s">
         <v>12</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" t="s">
         <v>39</v>
       </c>
       <c r="C141">
@@ -8438,10 +8481,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A142" s="4" t="s">
+      <c r="A142" t="s">
         <v>12</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" t="s">
         <v>40</v>
       </c>
       <c r="C142">
@@ -8449,10 +8492,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A143" s="4" t="s">
+      <c r="A143" t="s">
         <v>12</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" t="s">
         <v>41</v>
       </c>
       <c r="C143">
@@ -8460,10 +8503,10 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A144" s="4" t="s">
+      <c r="A144" t="s">
         <v>12</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" t="s">
         <v>42</v>
       </c>
       <c r="C144">
@@ -8471,10 +8514,10 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A145" s="4" t="s">
+      <c r="A145" t="s">
         <v>12</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" t="s">
         <v>43</v>
       </c>
       <c r="C145">
@@ -8482,10 +8525,10 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A146" s="4" t="s">
+      <c r="A146" t="s">
         <v>13</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" t="s">
         <v>32</v>
       </c>
       <c r="C146">
@@ -8493,10 +8536,10 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A147" s="4" t="s">
+      <c r="A147" t="s">
         <v>13</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" t="s">
         <v>33</v>
       </c>
       <c r="C147">
@@ -8504,10 +8547,10 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A148" s="4" t="s">
+      <c r="A148" t="s">
         <v>13</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" t="s">
         <v>34</v>
       </c>
       <c r="C148">
@@ -8515,10 +8558,10 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A149" s="4" t="s">
+      <c r="A149" t="s">
         <v>13</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" t="s">
         <v>35</v>
       </c>
       <c r="C149">
@@ -8526,10 +8569,10 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A150" s="4" t="s">
+      <c r="A150" t="s">
         <v>13</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" t="s">
         <v>36</v>
       </c>
       <c r="C150">
@@ -8537,10 +8580,10 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A151" s="4" t="s">
+      <c r="A151" t="s">
         <v>13</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" t="s">
         <v>37</v>
       </c>
       <c r="C151">
@@ -8548,10 +8591,10 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A152" s="4" t="s">
+      <c r="A152" t="s">
         <v>13</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" t="s">
         <v>38</v>
       </c>
       <c r="C152">
@@ -8559,10 +8602,10 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A153" s="4" t="s">
+      <c r="A153" t="s">
         <v>13</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" t="s">
         <v>39</v>
       </c>
       <c r="C153">
@@ -8570,10 +8613,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A154" s="4" t="s">
+      <c r="A154" t="s">
         <v>13</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" t="s">
         <v>40</v>
       </c>
       <c r="C154">
@@ -8581,10 +8624,10 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A155" s="4" t="s">
+      <c r="A155" t="s">
         <v>13</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" t="s">
         <v>41</v>
       </c>
       <c r="C155">
@@ -8592,10 +8635,10 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A156" s="4" t="s">
+      <c r="A156" t="s">
         <v>13</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" t="s">
         <v>42</v>
       </c>
       <c r="C156">
@@ -8603,10 +8646,10 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A157" s="4" t="s">
+      <c r="A157" t="s">
         <v>13</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" t="s">
         <v>43</v>
       </c>
       <c r="C157">
@@ -8614,10 +8657,10 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A158" s="4" t="s">
+      <c r="A158" t="s">
         <v>14</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" t="s">
         <v>32</v>
       </c>
       <c r="C158">
@@ -8625,10 +8668,10 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A159" s="4" t="s">
+      <c r="A159" t="s">
         <v>14</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" t="s">
         <v>33</v>
       </c>
       <c r="C159">
@@ -8636,10 +8679,10 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A160" s="4" t="s">
+      <c r="A160" t="s">
         <v>14</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" t="s">
         <v>34</v>
       </c>
       <c r="C160">
@@ -8647,10 +8690,10 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A161" s="4" t="s">
+      <c r="A161" t="s">
         <v>14</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" t="s">
         <v>35</v>
       </c>
       <c r="C161">
@@ -8658,10 +8701,10 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A162" s="4" t="s">
+      <c r="A162" t="s">
         <v>14</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" t="s">
         <v>36</v>
       </c>
       <c r="C162">
@@ -8669,10 +8712,10 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A163" s="4" t="s">
+      <c r="A163" t="s">
         <v>14</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" t="s">
         <v>37</v>
       </c>
       <c r="C163">
@@ -8680,10 +8723,10 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A164" s="4" t="s">
+      <c r="A164" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" t="s">
         <v>38</v>
       </c>
       <c r="C164">
@@ -8691,10 +8734,10 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A165" s="4" t="s">
+      <c r="A165" t="s">
         <v>14</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" t="s">
         <v>39</v>
       </c>
       <c r="C165">
@@ -8702,10 +8745,10 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A166" s="4" t="s">
+      <c r="A166" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" t="s">
         <v>40</v>
       </c>
       <c r="C166">
@@ -8713,10 +8756,10 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A167" s="4" t="s">
+      <c r="A167" t="s">
         <v>14</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" t="s">
         <v>41</v>
       </c>
       <c r="C167">
@@ -8724,10 +8767,10 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A168" s="4" t="s">
+      <c r="A168" t="s">
         <v>14</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" t="s">
         <v>42</v>
       </c>
       <c r="C168">
@@ -8735,10 +8778,10 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A169" s="4" t="s">
+      <c r="A169" t="s">
         <v>14</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" t="s">
         <v>43</v>
       </c>
       <c r="C169">
@@ -8746,10 +8789,10 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A170" s="4" t="s">
+      <c r="A170" t="s">
         <v>15</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" t="s">
         <v>32</v>
       </c>
       <c r="C170">
@@ -8757,10 +8800,10 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A171" s="4" t="s">
+      <c r="A171" t="s">
         <v>15</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" t="s">
         <v>33</v>
       </c>
       <c r="C171">
@@ -8768,10 +8811,10 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A172" s="4" t="s">
+      <c r="A172" t="s">
         <v>15</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" t="s">
         <v>34</v>
       </c>
       <c r="C172">
@@ -8779,10 +8822,10 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A173" s="4" t="s">
+      <c r="A173" t="s">
         <v>15</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" t="s">
         <v>35</v>
       </c>
       <c r="C173">
@@ -8790,10 +8833,10 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A174" s="4" t="s">
+      <c r="A174" t="s">
         <v>15</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" t="s">
         <v>36</v>
       </c>
       <c r="C174">
@@ -8801,10 +8844,10 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A175" s="4" t="s">
+      <c r="A175" t="s">
         <v>15</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" t="s">
         <v>37</v>
       </c>
       <c r="C175">
@@ -8812,10 +8855,10 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A176" s="4" t="s">
+      <c r="A176" t="s">
         <v>15</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" t="s">
         <v>38</v>
       </c>
       <c r="C176">
@@ -8823,10 +8866,10 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A177" s="4" t="s">
+      <c r="A177" t="s">
         <v>15</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" t="s">
         <v>39</v>
       </c>
       <c r="C177">
@@ -8834,10 +8877,10 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A178" s="4" t="s">
+      <c r="A178" t="s">
         <v>15</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" t="s">
         <v>40</v>
       </c>
       <c r="C178">
@@ -8845,10 +8888,10 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A179" s="4" t="s">
+      <c r="A179" t="s">
         <v>15</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" t="s">
         <v>41</v>
       </c>
       <c r="C179">
@@ -8856,10 +8899,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A180" s="4" t="s">
+      <c r="A180" t="s">
         <v>15</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" t="s">
         <v>42</v>
       </c>
       <c r="C180">
@@ -8867,10 +8910,10 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A181" s="4" t="s">
+      <c r="A181" t="s">
         <v>15</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" t="s">
         <v>43</v>
       </c>
       <c r="C181">
@@ -8878,10 +8921,10 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A182" s="4" t="s">
+      <c r="A182" t="s">
         <v>16</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" t="s">
         <v>32</v>
       </c>
       <c r="C182">
@@ -8889,10 +8932,10 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A183" s="4" t="s">
+      <c r="A183" t="s">
         <v>16</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" t="s">
         <v>33</v>
       </c>
       <c r="C183">
@@ -8900,10 +8943,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A184" s="4" t="s">
+      <c r="A184" t="s">
         <v>16</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" t="s">
         <v>34</v>
       </c>
       <c r="C184">
@@ -8911,10 +8954,10 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A185" s="4" t="s">
+      <c r="A185" t="s">
         <v>16</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" t="s">
         <v>35</v>
       </c>
       <c r="C185">
@@ -8922,10 +8965,10 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A186" s="4" t="s">
+      <c r="A186" t="s">
         <v>16</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" t="s">
         <v>36</v>
       </c>
       <c r="C186">
@@ -8933,10 +8976,10 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A187" s="4" t="s">
+      <c r="A187" t="s">
         <v>16</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" t="s">
         <v>37</v>
       </c>
       <c r="C187">
@@ -8944,10 +8987,10 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A188" s="4" t="s">
+      <c r="A188" t="s">
         <v>16</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" t="s">
         <v>38</v>
       </c>
       <c r="C188">
@@ -8955,10 +8998,10 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A189" s="4" t="s">
+      <c r="A189" t="s">
         <v>16</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" t="s">
         <v>39</v>
       </c>
       <c r="C189">
@@ -8966,10 +9009,10 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A190" s="4" t="s">
+      <c r="A190" t="s">
         <v>16</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" t="s">
         <v>40</v>
       </c>
       <c r="C190">
@@ -8977,10 +9020,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A191" s="4" t="s">
+      <c r="A191" t="s">
         <v>16</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" t="s">
         <v>41</v>
       </c>
       <c r="C191">
@@ -8988,10 +9031,10 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A192" s="4" t="s">
+      <c r="A192" t="s">
         <v>16</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" t="s">
         <v>42</v>
       </c>
       <c r="C192">
@@ -8999,10 +9042,10 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A193" s="4" t="s">
+      <c r="A193" t="s">
         <v>16</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" t="s">
         <v>43</v>
       </c>
       <c r="C193">
@@ -9010,10 +9053,10 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A194" s="4" t="s">
+      <c r="A194" t="s">
         <v>17</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" t="s">
         <v>32</v>
       </c>
       <c r="C194">
@@ -9021,10 +9064,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A195" s="4" t="s">
+      <c r="A195" t="s">
         <v>17</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" t="s">
         <v>33</v>
       </c>
       <c r="C195">
@@ -9032,10 +9075,10 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A196" s="4" t="s">
+      <c r="A196" t="s">
         <v>17</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" t="s">
         <v>34</v>
       </c>
       <c r="C196">
@@ -9043,10 +9086,10 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A197" s="4" t="s">
+      <c r="A197" t="s">
         <v>17</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" t="s">
         <v>35</v>
       </c>
       <c r="C197">
@@ -9054,10 +9097,10 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A198" s="4" t="s">
+      <c r="A198" t="s">
         <v>17</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" t="s">
         <v>36</v>
       </c>
       <c r="C198">
@@ -9065,10 +9108,10 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A199" s="4" t="s">
+      <c r="A199" t="s">
         <v>17</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" t="s">
         <v>37</v>
       </c>
       <c r="C199">
@@ -9076,10 +9119,10 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A200" s="4" t="s">
+      <c r="A200" t="s">
         <v>17</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" t="s">
         <v>38</v>
       </c>
       <c r="C200">
@@ -9087,10 +9130,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A201" s="4" t="s">
+      <c r="A201" t="s">
         <v>17</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" t="s">
         <v>39</v>
       </c>
       <c r="C201">
@@ -9098,10 +9141,10 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A202" s="4" t="s">
+      <c r="A202" t="s">
         <v>17</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" t="s">
         <v>40</v>
       </c>
       <c r="C202">
@@ -9109,10 +9152,10 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A203" s="4" t="s">
+      <c r="A203" t="s">
         <v>17</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" t="s">
         <v>41</v>
       </c>
       <c r="C203">
@@ -9120,10 +9163,10 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A204" s="4" t="s">
+      <c r="A204" t="s">
         <v>17</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" t="s">
         <v>42</v>
       </c>
       <c r="C204">
@@ -9131,10 +9174,10 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A205" s="4" t="s">
+      <c r="A205" t="s">
         <v>17</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" t="s">
         <v>43</v>
       </c>
       <c r="C205">
@@ -9142,10 +9185,10 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A206" s="4" t="s">
+      <c r="A206" t="s">
         <v>18</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" t="s">
         <v>32</v>
       </c>
       <c r="C206">
@@ -9153,10 +9196,10 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A207" s="4" t="s">
+      <c r="A207" t="s">
         <v>18</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" t="s">
         <v>33</v>
       </c>
       <c r="C207">
@@ -9164,10 +9207,10 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A208" s="4" t="s">
+      <c r="A208" t="s">
         <v>18</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" t="s">
         <v>34</v>
       </c>
       <c r="C208">
@@ -9175,10 +9218,10 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A209" s="4" t="s">
+      <c r="A209" t="s">
         <v>18</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" t="s">
         <v>35</v>
       </c>
       <c r="C209">
@@ -9186,10 +9229,10 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A210" s="4" t="s">
+      <c r="A210" t="s">
         <v>18</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" t="s">
         <v>36</v>
       </c>
       <c r="C210">
@@ -9197,10 +9240,10 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A211" s="4" t="s">
+      <c r="A211" t="s">
         <v>18</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" t="s">
         <v>37</v>
       </c>
       <c r="C211">
@@ -9208,10 +9251,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A212" s="4" t="s">
+      <c r="A212" t="s">
         <v>18</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212">
@@ -9219,10 +9262,10 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A213" s="4" t="s">
+      <c r="A213" t="s">
         <v>18</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" t="s">
         <v>39</v>
       </c>
       <c r="C213">
@@ -9230,10 +9273,10 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A214" s="4" t="s">
+      <c r="A214" t="s">
         <v>18</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" t="s">
         <v>40</v>
       </c>
       <c r="C214">
@@ -9241,10 +9284,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A215" s="4" t="s">
+      <c r="A215" t="s">
         <v>18</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" t="s">
         <v>41</v>
       </c>
       <c r="C215">
@@ -9252,10 +9295,10 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A216" s="4" t="s">
+      <c r="A216" t="s">
         <v>18</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" t="s">
         <v>42</v>
       </c>
       <c r="C216">
@@ -9263,10 +9306,10 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A217" s="4" t="s">
+      <c r="A217" t="s">
         <v>18</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" t="s">
         <v>43</v>
       </c>
       <c r="C217">
@@ -9274,10 +9317,10 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A218" s="4" t="s">
+      <c r="A218" t="s">
         <v>19</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" t="s">
         <v>32</v>
       </c>
       <c r="C218">
@@ -9285,10 +9328,10 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A219" s="4" t="s">
+      <c r="A219" t="s">
         <v>19</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" t="s">
         <v>33</v>
       </c>
       <c r="C219">
@@ -9296,10 +9339,10 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A220" s="4" t="s">
+      <c r="A220" t="s">
         <v>19</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" t="s">
         <v>34</v>
       </c>
       <c r="C220">
@@ -9307,10 +9350,10 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A221" s="4" t="s">
+      <c r="A221" t="s">
         <v>19</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" t="s">
         <v>35</v>
       </c>
       <c r="C221">
@@ -9318,10 +9361,10 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A222" s="4" t="s">
+      <c r="A222" t="s">
         <v>19</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" t="s">
         <v>36</v>
       </c>
       <c r="C222">
@@ -9329,10 +9372,10 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A223" s="4" t="s">
+      <c r="A223" t="s">
         <v>19</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" t="s">
         <v>37</v>
       </c>
       <c r="C223">
@@ -9340,10 +9383,10 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A224" s="4" t="s">
+      <c r="A224" t="s">
         <v>19</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" t="s">
         <v>38</v>
       </c>
       <c r="C224">
@@ -9351,10 +9394,10 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A225" s="4" t="s">
+      <c r="A225" t="s">
         <v>19</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" t="s">
         <v>39</v>
       </c>
       <c r="C225">
@@ -9362,10 +9405,10 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A226" s="4" t="s">
+      <c r="A226" t="s">
         <v>19</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" t="s">
         <v>40</v>
       </c>
       <c r="C226">
@@ -9373,10 +9416,10 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A227" s="4" t="s">
+      <c r="A227" t="s">
         <v>19</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" t="s">
         <v>41</v>
       </c>
       <c r="C227">
@@ -9384,10 +9427,10 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A228" s="4" t="s">
+      <c r="A228" t="s">
         <v>19</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" t="s">
         <v>42</v>
       </c>
       <c r="C228">
@@ -9395,10 +9438,10 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A229" s="4" t="s">
+      <c r="A229" t="s">
         <v>19</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" t="s">
         <v>43</v>
       </c>
       <c r="C229">
@@ -9406,10 +9449,10 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A230" s="4" t="s">
+      <c r="A230" t="s">
         <v>20</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" t="s">
         <v>32</v>
       </c>
       <c r="C230">
@@ -9417,10 +9460,10 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A231" s="4" t="s">
+      <c r="A231" t="s">
         <v>20</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" t="s">
         <v>33</v>
       </c>
       <c r="C231">
@@ -9428,10 +9471,10 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A232" s="4" t="s">
+      <c r="A232" t="s">
         <v>20</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" t="s">
         <v>34</v>
       </c>
       <c r="C232">
@@ -9439,10 +9482,10 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A233" s="4" t="s">
+      <c r="A233" t="s">
         <v>20</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" t="s">
         <v>35</v>
       </c>
       <c r="C233">
@@ -9450,10 +9493,10 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A234" s="4" t="s">
+      <c r="A234" t="s">
         <v>20</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" t="s">
         <v>36</v>
       </c>
       <c r="C234">
@@ -9461,10 +9504,10 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A235" s="4" t="s">
+      <c r="A235" t="s">
         <v>20</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" t="s">
         <v>37</v>
       </c>
       <c r="C235">
@@ -9472,10 +9515,10 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A236" s="4" t="s">
+      <c r="A236" t="s">
         <v>20</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" t="s">
         <v>38</v>
       </c>
       <c r="C236">
@@ -9483,10 +9526,10 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A237" s="4" t="s">
+      <c r="A237" t="s">
         <v>20</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" t="s">
         <v>39</v>
       </c>
       <c r="C237">
@@ -9494,10 +9537,10 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A238" s="4" t="s">
+      <c r="A238" t="s">
         <v>20</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" t="s">
         <v>40</v>
       </c>
       <c r="C238">
@@ -9505,10 +9548,10 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A239" s="4" t="s">
+      <c r="A239" t="s">
         <v>20</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" t="s">
         <v>41</v>
       </c>
       <c r="C239">
@@ -9516,10 +9559,10 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A240" s="4" t="s">
+      <c r="A240" t="s">
         <v>20</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" t="s">
         <v>42</v>
       </c>
       <c r="C240">
@@ -9527,10 +9570,10 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A241" s="4" t="s">
+      <c r="A241" t="s">
         <v>20</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" t="s">
         <v>43</v>
       </c>
       <c r="C241">
@@ -9538,10 +9581,10 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A242" s="4" t="s">
+      <c r="A242" t="s">
         <v>21</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" t="s">
         <v>32</v>
       </c>
       <c r="C242">
@@ -9549,10 +9592,10 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A243" s="4" t="s">
+      <c r="A243" t="s">
         <v>21</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" t="s">
         <v>33</v>
       </c>
       <c r="C243">
@@ -9560,10 +9603,10 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A244" s="4" t="s">
+      <c r="A244" t="s">
         <v>21</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" t="s">
         <v>34</v>
       </c>
       <c r="C244">
@@ -9571,10 +9614,10 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A245" s="4" t="s">
+      <c r="A245" t="s">
         <v>21</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" t="s">
         <v>35</v>
       </c>
       <c r="C245">
@@ -9582,10 +9625,10 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A246" s="4" t="s">
+      <c r="A246" t="s">
         <v>21</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" t="s">
         <v>36</v>
       </c>
       <c r="C246">
@@ -9593,10 +9636,10 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A247" s="4" t="s">
+      <c r="A247" t="s">
         <v>21</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" t="s">
         <v>37</v>
       </c>
       <c r="C247">
@@ -9604,10 +9647,10 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A248" s="4" t="s">
+      <c r="A248" t="s">
         <v>21</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" t="s">
         <v>38</v>
       </c>
       <c r="C248">
@@ -9615,10 +9658,10 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A249" s="4" t="s">
+      <c r="A249" t="s">
         <v>21</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" t="s">
         <v>39</v>
       </c>
       <c r="C249">
@@ -9626,10 +9669,10 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A250" s="4" t="s">
+      <c r="A250" t="s">
         <v>21</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" t="s">
         <v>40</v>
       </c>
       <c r="C250">
@@ -9637,10 +9680,10 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A251" s="4" t="s">
+      <c r="A251" t="s">
         <v>21</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" t="s">
         <v>41</v>
       </c>
       <c r="C251">
@@ -9648,10 +9691,10 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A252" s="4" t="s">
+      <c r="A252" t="s">
         <v>21</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" t="s">
         <v>42</v>
       </c>
       <c r="C252">
@@ -9659,10 +9702,10 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A253" s="4" t="s">
+      <c r="A253" t="s">
         <v>21</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" t="s">
         <v>43</v>
       </c>
       <c r="C253">
@@ -9670,10 +9713,10 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A254" s="4" t="s">
+      <c r="A254" t="s">
         <v>22</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" t="s">
         <v>32</v>
       </c>
       <c r="C254">
@@ -9681,10 +9724,10 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A255" s="4" t="s">
+      <c r="A255" t="s">
         <v>22</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" t="s">
         <v>33</v>
       </c>
       <c r="C255">
@@ -9692,10 +9735,10 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A256" s="4" t="s">
+      <c r="A256" t="s">
         <v>22</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" t="s">
         <v>34</v>
       </c>
       <c r="C256">
@@ -9703,10 +9746,10 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A257" s="4" t="s">
+      <c r="A257" t="s">
         <v>22</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" t="s">
         <v>35</v>
       </c>
       <c r="C257">
@@ -9714,10 +9757,10 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A258" s="4" t="s">
+      <c r="A258" t="s">
         <v>22</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" t="s">
         <v>36</v>
       </c>
       <c r="C258">
@@ -9725,10 +9768,10 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A259" s="4" t="s">
+      <c r="A259" t="s">
         <v>22</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" t="s">
         <v>37</v>
       </c>
       <c r="C259">
@@ -9736,10 +9779,10 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A260" s="4" t="s">
+      <c r="A260" t="s">
         <v>22</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" t="s">
         <v>38</v>
       </c>
       <c r="C260">
@@ -9747,10 +9790,10 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A261" s="4" t="s">
+      <c r="A261" t="s">
         <v>22</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" t="s">
         <v>39</v>
       </c>
       <c r="C261">
@@ -9758,10 +9801,10 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A262" s="4" t="s">
+      <c r="A262" t="s">
         <v>22</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" t="s">
         <v>40</v>
       </c>
       <c r="C262">
@@ -9769,10 +9812,10 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A263" s="4" t="s">
+      <c r="A263" t="s">
         <v>22</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" t="s">
         <v>41</v>
       </c>
       <c r="C263">
@@ -9780,10 +9823,10 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A264" s="4" t="s">
+      <c r="A264" t="s">
         <v>22</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" t="s">
         <v>42</v>
       </c>
       <c r="C264">
@@ -9791,10 +9834,10 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A265" s="4" t="s">
+      <c r="A265" t="s">
         <v>22</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" t="s">
         <v>43</v>
       </c>
       <c r="C265">
@@ -9802,10 +9845,10 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A266" s="4" t="s">
+      <c r="A266" t="s">
         <v>23</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" t="s">
         <v>32</v>
       </c>
       <c r="C266">
@@ -9813,10 +9856,10 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A267" s="4" t="s">
+      <c r="A267" t="s">
         <v>23</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" t="s">
         <v>33</v>
       </c>
       <c r="C267">
@@ -9824,10 +9867,10 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A268" s="4" t="s">
+      <c r="A268" t="s">
         <v>23</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" t="s">
         <v>34</v>
       </c>
       <c r="C268">
@@ -9835,10 +9878,10 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A269" s="4" t="s">
+      <c r="A269" t="s">
         <v>23</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" t="s">
         <v>35</v>
       </c>
       <c r="C269">
@@ -9846,10 +9889,10 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A270" s="4" t="s">
+      <c r="A270" t="s">
         <v>23</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" t="s">
         <v>36</v>
       </c>
       <c r="C270">
@@ -9857,10 +9900,10 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A271" s="4" t="s">
+      <c r="A271" t="s">
         <v>23</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" t="s">
         <v>37</v>
       </c>
       <c r="C271">
@@ -9868,10 +9911,10 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A272" s="4" t="s">
+      <c r="A272" t="s">
         <v>23</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" t="s">
         <v>38</v>
       </c>
       <c r="C272">
@@ -9879,10 +9922,10 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A273" s="4" t="s">
+      <c r="A273" t="s">
         <v>23</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" t="s">
         <v>39</v>
       </c>
       <c r="C273">
@@ -9890,10 +9933,10 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A274" s="4" t="s">
+      <c r="A274" t="s">
         <v>23</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" t="s">
         <v>40</v>
       </c>
       <c r="C274">
@@ -9901,10 +9944,10 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A275" s="4" t="s">
+      <c r="A275" t="s">
         <v>23</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" t="s">
         <v>41</v>
       </c>
       <c r="C275">
@@ -9912,10 +9955,10 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A276" s="4" t="s">
+      <c r="A276" t="s">
         <v>23</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" t="s">
         <v>42</v>
       </c>
       <c r="C276">
@@ -9923,10 +9966,10 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A277" s="4" t="s">
+      <c r="A277" t="s">
         <v>23</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" t="s">
         <v>43</v>
       </c>
       <c r="C277">
@@ -9934,10 +9977,10 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A278" s="4" t="s">
+      <c r="A278" t="s">
         <v>24</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" t="s">
         <v>32</v>
       </c>
       <c r="C278">
@@ -9945,10 +9988,10 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A279" s="4" t="s">
+      <c r="A279" t="s">
         <v>24</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" t="s">
         <v>33</v>
       </c>
       <c r="C279">
@@ -9956,10 +9999,10 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A280" s="4" t="s">
+      <c r="A280" t="s">
         <v>24</v>
       </c>
-      <c r="B280" s="4" t="s">
+      <c r="B280" t="s">
         <v>34</v>
       </c>
       <c r="C280">
@@ -9967,10 +10010,10 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A281" s="4" t="s">
+      <c r="A281" t="s">
         <v>24</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="B281" t="s">
         <v>35</v>
       </c>
       <c r="C281">
@@ -9978,10 +10021,10 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A282" s="4" t="s">
+      <c r="A282" t="s">
         <v>24</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="B282" t="s">
         <v>36</v>
       </c>
       <c r="C282">
@@ -9989,10 +10032,10 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A283" s="4" t="s">
+      <c r="A283" t="s">
         <v>24</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B283" t="s">
         <v>37</v>
       </c>
       <c r="C283">
@@ -10000,10 +10043,10 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A284" s="4" t="s">
+      <c r="A284" t="s">
         <v>24</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="B284" t="s">
         <v>38</v>
       </c>
       <c r="C284">
@@ -10011,10 +10054,10 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A285" s="4" t="s">
+      <c r="A285" t="s">
         <v>24</v>
       </c>
-      <c r="B285" s="4" t="s">
+      <c r="B285" t="s">
         <v>39</v>
       </c>
       <c r="C285">
@@ -10022,10 +10065,10 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A286" s="4" t="s">
+      <c r="A286" t="s">
         <v>24</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B286" t="s">
         <v>40</v>
       </c>
       <c r="C286">
@@ -10033,10 +10076,10 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A287" s="4" t="s">
+      <c r="A287" t="s">
         <v>24</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B287" t="s">
         <v>41</v>
       </c>
       <c r="C287">
@@ -10044,10 +10087,10 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A288" s="4" t="s">
+      <c r="A288" t="s">
         <v>24</v>
       </c>
-      <c r="B288" s="4" t="s">
+      <c r="B288" t="s">
         <v>42</v>
       </c>
       <c r="C288">
@@ -10055,10 +10098,10 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A289" s="4" t="s">
+      <c r="A289" t="s">
         <v>24</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B289" t="s">
         <v>43</v>
       </c>
       <c r="C289">
@@ -10066,10 +10109,10 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A290" s="4" t="s">
+      <c r="A290" t="s">
         <v>25</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="B290" t="s">
         <v>32</v>
       </c>
       <c r="C290">
@@ -10077,10 +10120,10 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A291" s="4" t="s">
+      <c r="A291" t="s">
         <v>25</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B291" t="s">
         <v>33</v>
       </c>
       <c r="C291">
@@ -10088,10 +10131,10 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A292" s="4" t="s">
+      <c r="A292" t="s">
         <v>25</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B292" t="s">
         <v>34</v>
       </c>
       <c r="C292">
@@ -10099,10 +10142,10 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A293" s="4" t="s">
+      <c r="A293" t="s">
         <v>25</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="B293" t="s">
         <v>35</v>
       </c>
       <c r="C293">
@@ -10110,10 +10153,10 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A294" s="4" t="s">
+      <c r="A294" t="s">
         <v>25</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B294" t="s">
         <v>36</v>
       </c>
       <c r="C294">
@@ -10121,10 +10164,10 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A295" s="4" t="s">
+      <c r="A295" t="s">
         <v>25</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B295" t="s">
         <v>37</v>
       </c>
       <c r="C295">
@@ -10132,10 +10175,10 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A296" s="4" t="s">
+      <c r="A296" t="s">
         <v>25</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B296" t="s">
         <v>38</v>
       </c>
       <c r="C296">
@@ -10143,10 +10186,10 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A297" s="4" t="s">
+      <c r="A297" t="s">
         <v>25</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B297" t="s">
         <v>39</v>
       </c>
       <c r="C297">
@@ -10154,10 +10197,10 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A298" s="4" t="s">
+      <c r="A298" t="s">
         <v>25</v>
       </c>
-      <c r="B298" s="4" t="s">
+      <c r="B298" t="s">
         <v>40</v>
       </c>
       <c r="C298">
@@ -10165,10 +10208,10 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A299" s="4" t="s">
+      <c r="A299" t="s">
         <v>25</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B299" t="s">
         <v>41</v>
       </c>
       <c r="C299">
@@ -10176,10 +10219,10 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A300" s="4" t="s">
+      <c r="A300" t="s">
         <v>25</v>
       </c>
-      <c r="B300" s="4" t="s">
+      <c r="B300" t="s">
         <v>42</v>
       </c>
       <c r="C300">
@@ -10187,10 +10230,10 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A301" s="4" t="s">
+      <c r="A301" t="s">
         <v>25</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B301" t="s">
         <v>43</v>
       </c>
       <c r="C301">
@@ -10198,10 +10241,10 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A302" s="4" t="s">
+      <c r="A302" t="s">
         <v>26</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B302" t="s">
         <v>32</v>
       </c>
       <c r="C302">
@@ -10209,10 +10252,10 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A303" s="4" t="s">
+      <c r="A303" t="s">
         <v>26</v>
       </c>
-      <c r="B303" s="4" t="s">
+      <c r="B303" t="s">
         <v>33</v>
       </c>
       <c r="C303">
@@ -10220,10 +10263,10 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A304" s="4" t="s">
+      <c r="A304" t="s">
         <v>26</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B304" t="s">
         <v>34</v>
       </c>
       <c r="C304">
@@ -10231,10 +10274,10 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A305" s="4" t="s">
+      <c r="A305" t="s">
         <v>26</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B305" t="s">
         <v>35</v>
       </c>
       <c r="C305">
@@ -10242,10 +10285,10 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A306" s="4" t="s">
+      <c r="A306" t="s">
         <v>26</v>
       </c>
-      <c r="B306" s="4" t="s">
+      <c r="B306" t="s">
         <v>36</v>
       </c>
       <c r="C306">
@@ -10253,10 +10296,10 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A307" s="4" t="s">
+      <c r="A307" t="s">
         <v>26</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B307" t="s">
         <v>37</v>
       </c>
       <c r="C307">
@@ -10264,10 +10307,10 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A308" s="4" t="s">
+      <c r="A308" t="s">
         <v>26</v>
       </c>
-      <c r="B308" s="4" t="s">
+      <c r="B308" t="s">
         <v>38</v>
       </c>
       <c r="C308">
@@ -10275,10 +10318,10 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A309" s="4" t="s">
+      <c r="A309" t="s">
         <v>26</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" t="s">
         <v>39</v>
       </c>
       <c r="C309">
@@ -10286,10 +10329,10 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A310" s="4" t="s">
+      <c r="A310" t="s">
         <v>26</v>
       </c>
-      <c r="B310" s="4" t="s">
+      <c r="B310" t="s">
         <v>40</v>
       </c>
       <c r="C310">
@@ -10297,10 +10340,10 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A311" s="4" t="s">
+      <c r="A311" t="s">
         <v>26</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B311" t="s">
         <v>41</v>
       </c>
       <c r="C311">
@@ -10308,10 +10351,10 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A312" s="4" t="s">
+      <c r="A312" t="s">
         <v>26</v>
       </c>
-      <c r="B312" s="4" t="s">
+      <c r="B312" t="s">
         <v>42</v>
       </c>
       <c r="C312">
@@ -10319,10 +10362,10 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A313" s="4" t="s">
+      <c r="A313" t="s">
         <v>26</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B313" t="s">
         <v>43</v>
       </c>
       <c r="C313">
@@ -10330,10 +10373,10 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A314" s="4" t="s">
+      <c r="A314" t="s">
         <v>27</v>
       </c>
-      <c r="B314" s="4" t="s">
+      <c r="B314" t="s">
         <v>32</v>
       </c>
       <c r="C314">
@@ -10341,10 +10384,10 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A315" s="4" t="s">
+      <c r="A315" t="s">
         <v>27</v>
       </c>
-      <c r="B315" s="4" t="s">
+      <c r="B315" t="s">
         <v>33</v>
       </c>
       <c r="C315">
@@ -10352,10 +10395,10 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A316" s="4" t="s">
+      <c r="A316" t="s">
         <v>27</v>
       </c>
-      <c r="B316" s="4" t="s">
+      <c r="B316" t="s">
         <v>34</v>
       </c>
       <c r="C316">
@@ -10363,10 +10406,10 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A317" s="4" t="s">
+      <c r="A317" t="s">
         <v>27</v>
       </c>
-      <c r="B317" s="4" t="s">
+      <c r="B317" t="s">
         <v>35</v>
       </c>
       <c r="C317">
@@ -10374,10 +10417,10 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A318" s="4" t="s">
+      <c r="A318" t="s">
         <v>27</v>
       </c>
-      <c r="B318" s="4" t="s">
+      <c r="B318" t="s">
         <v>36</v>
       </c>
       <c r="C318">
@@ -10385,10 +10428,10 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A319" s="4" t="s">
+      <c r="A319" t="s">
         <v>27</v>
       </c>
-      <c r="B319" s="4" t="s">
+      <c r="B319" t="s">
         <v>37</v>
       </c>
       <c r="C319">
@@ -10396,10 +10439,10 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A320" s="4" t="s">
+      <c r="A320" t="s">
         <v>27</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B320" t="s">
         <v>38</v>
       </c>
       <c r="C320">
@@ -10407,10 +10450,10 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A321" s="4" t="s">
+      <c r="A321" t="s">
         <v>27</v>
       </c>
-      <c r="B321" s="4" t="s">
+      <c r="B321" t="s">
         <v>39</v>
       </c>
       <c r="C321">
@@ -10418,10 +10461,10 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A322" s="4" t="s">
+      <c r="A322" t="s">
         <v>27</v>
       </c>
-      <c r="B322" s="4" t="s">
+      <c r="B322" t="s">
         <v>40</v>
       </c>
       <c r="C322">
@@ -10429,10 +10472,10 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A323" s="4" t="s">
+      <c r="A323" t="s">
         <v>27</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B323" t="s">
         <v>41</v>
       </c>
       <c r="C323">
@@ -10440,10 +10483,10 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A324" s="4" t="s">
+      <c r="A324" t="s">
         <v>27</v>
       </c>
-      <c r="B324" s="4" t="s">
+      <c r="B324" t="s">
         <v>42</v>
       </c>
       <c r="C324">
@@ -10451,10 +10494,10 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A325" s="4" t="s">
+      <c r="A325" t="s">
         <v>27</v>
       </c>
-      <c r="B325" s="4" t="s">
+      <c r="B325" t="s">
         <v>43</v>
       </c>
       <c r="C325">
@@ -10462,10 +10505,10 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A326" s="4" t="s">
+      <c r="A326" t="s">
         <v>28</v>
       </c>
-      <c r="B326" s="4" t="s">
+      <c r="B326" t="s">
         <v>32</v>
       </c>
       <c r="C326">
@@ -10473,10 +10516,10 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A327" s="4" t="s">
+      <c r="A327" t="s">
         <v>28</v>
       </c>
-      <c r="B327" s="4" t="s">
+      <c r="B327" t="s">
         <v>33</v>
       </c>
       <c r="C327">
@@ -10484,10 +10527,10 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A328" s="4" t="s">
+      <c r="A328" t="s">
         <v>28</v>
       </c>
-      <c r="B328" s="4" t="s">
+      <c r="B328" t="s">
         <v>34</v>
       </c>
       <c r="C328">
@@ -10495,10 +10538,10 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A329" s="4" t="s">
+      <c r="A329" t="s">
         <v>28</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="B329" t="s">
         <v>35</v>
       </c>
       <c r="C329">
@@ -10506,10 +10549,10 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A330" s="4" t="s">
+      <c r="A330" t="s">
         <v>28</v>
       </c>
-      <c r="B330" s="4" t="s">
+      <c r="B330" t="s">
         <v>36</v>
       </c>
       <c r="C330">
@@ -10517,10 +10560,10 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A331" s="4" t="s">
+      <c r="A331" t="s">
         <v>28</v>
       </c>
-      <c r="B331" s="4" t="s">
+      <c r="B331" t="s">
         <v>37</v>
       </c>
       <c r="C331">
@@ -10528,10 +10571,10 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A332" s="4" t="s">
+      <c r="A332" t="s">
         <v>28</v>
       </c>
-      <c r="B332" s="4" t="s">
+      <c r="B332" t="s">
         <v>38</v>
       </c>
       <c r="C332">
@@ -10539,10 +10582,10 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A333" s="4" t="s">
+      <c r="A333" t="s">
         <v>28</v>
       </c>
-      <c r="B333" s="4" t="s">
+      <c r="B333" t="s">
         <v>39</v>
       </c>
       <c r="C333">
@@ -10550,10 +10593,10 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A334" s="4" t="s">
+      <c r="A334" t="s">
         <v>28</v>
       </c>
-      <c r="B334" s="4" t="s">
+      <c r="B334" t="s">
         <v>40</v>
       </c>
       <c r="C334">
@@ -10561,10 +10604,10 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A335" s="4" t="s">
+      <c r="A335" t="s">
         <v>28</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="B335" t="s">
         <v>41</v>
       </c>
       <c r="C335">
@@ -10572,10 +10615,10 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A336" s="4" t="s">
+      <c r="A336" t="s">
         <v>28</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="B336" t="s">
         <v>42</v>
       </c>
       <c r="C336">
@@ -10583,10 +10626,10 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A337" s="4" t="s">
+      <c r="A337" t="s">
         <v>28</v>
       </c>
-      <c r="B337" s="4" t="s">
+      <c r="B337" t="s">
         <v>43</v>
       </c>
       <c r="C337">
@@ -10594,10 +10637,10 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A338" s="4" t="s">
+      <c r="A338" t="s">
         <v>29</v>
       </c>
-      <c r="B338" s="4" t="s">
+      <c r="B338" t="s">
         <v>32</v>
       </c>
       <c r="C338">
@@ -10605,10 +10648,10 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A339" s="4" t="s">
+      <c r="A339" t="s">
         <v>29</v>
       </c>
-      <c r="B339" s="4" t="s">
+      <c r="B339" t="s">
         <v>33</v>
       </c>
       <c r="C339">
@@ -10616,10 +10659,10 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A340" s="4" t="s">
+      <c r="A340" t="s">
         <v>29</v>
       </c>
-      <c r="B340" s="4" t="s">
+      <c r="B340" t="s">
         <v>34</v>
       </c>
       <c r="C340">
@@ -10627,10 +10670,10 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A341" s="4" t="s">
+      <c r="A341" t="s">
         <v>29</v>
       </c>
-      <c r="B341" s="4" t="s">
+      <c r="B341" t="s">
         <v>35</v>
       </c>
       <c r="C341">
@@ -10638,10 +10681,10 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A342" s="4" t="s">
+      <c r="A342" t="s">
         <v>29</v>
       </c>
-      <c r="B342" s="4" t="s">
+      <c r="B342" t="s">
         <v>36</v>
       </c>
       <c r="C342">
@@ -10649,10 +10692,10 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A343" s="4" t="s">
+      <c r="A343" t="s">
         <v>29</v>
       </c>
-      <c r="B343" s="4" t="s">
+      <c r="B343" t="s">
         <v>37</v>
       </c>
       <c r="C343">
@@ -10660,10 +10703,10 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A344" s="4" t="s">
+      <c r="A344" t="s">
         <v>29</v>
       </c>
-      <c r="B344" s="4" t="s">
+      <c r="B344" t="s">
         <v>38</v>
       </c>
       <c r="C344">
@@ -10671,10 +10714,10 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A345" s="4" t="s">
+      <c r="A345" t="s">
         <v>29</v>
       </c>
-      <c r="B345" s="4" t="s">
+      <c r="B345" t="s">
         <v>39</v>
       </c>
       <c r="C345">
@@ -10682,10 +10725,10 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A346" s="4" t="s">
+      <c r="A346" t="s">
         <v>29</v>
       </c>
-      <c r="B346" s="4" t="s">
+      <c r="B346" t="s">
         <v>40</v>
       </c>
       <c r="C346">
@@ -10693,10 +10736,10 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A347" s="4" t="s">
+      <c r="A347" t="s">
         <v>29</v>
       </c>
-      <c r="B347" s="4" t="s">
+      <c r="B347" t="s">
         <v>41</v>
       </c>
       <c r="C347">
@@ -10704,10 +10747,10 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A348" s="4" t="s">
+      <c r="A348" t="s">
         <v>29</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="B348" t="s">
         <v>42</v>
       </c>
       <c r="C348">
@@ -10715,10 +10758,10 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A349" s="4" t="s">
+      <c r="A349" t="s">
         <v>29</v>
       </c>
-      <c r="B349" s="4" t="s">
+      <c r="B349" t="s">
         <v>43</v>
       </c>
       <c r="C349">
@@ -10726,10 +10769,10 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A350" s="4" t="s">
+      <c r="A350" t="s">
         <v>30</v>
       </c>
-      <c r="B350" s="4" t="s">
+      <c r="B350" t="s">
         <v>32</v>
       </c>
       <c r="C350">
@@ -10737,10 +10780,10 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A351" s="4" t="s">
+      <c r="A351" t="s">
         <v>30</v>
       </c>
-      <c r="B351" s="4" t="s">
+      <c r="B351" t="s">
         <v>33</v>
       </c>
       <c r="C351">
@@ -10748,10 +10791,10 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A352" s="4" t="s">
+      <c r="A352" t="s">
         <v>30</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="B352" t="s">
         <v>34</v>
       </c>
       <c r="C352">
@@ -10759,10 +10802,10 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A353" s="4" t="s">
+      <c r="A353" t="s">
         <v>30</v>
       </c>
-      <c r="B353" s="4" t="s">
+      <c r="B353" t="s">
         <v>35</v>
       </c>
       <c r="C353">
@@ -10770,10 +10813,10 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A354" s="4" t="s">
+      <c r="A354" t="s">
         <v>30</v>
       </c>
-      <c r="B354" s="4" t="s">
+      <c r="B354" t="s">
         <v>36</v>
       </c>
       <c r="C354">
@@ -10781,10 +10824,10 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A355" s="4" t="s">
+      <c r="A355" t="s">
         <v>30</v>
       </c>
-      <c r="B355" s="4" t="s">
+      <c r="B355" t="s">
         <v>37</v>
       </c>
       <c r="C355">
@@ -10792,10 +10835,10 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A356" s="4" t="s">
+      <c r="A356" t="s">
         <v>30</v>
       </c>
-      <c r="B356" s="4" t="s">
+      <c r="B356" t="s">
         <v>38</v>
       </c>
       <c r="C356">
@@ -10803,10 +10846,10 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A357" s="4" t="s">
+      <c r="A357" t="s">
         <v>30</v>
       </c>
-      <c r="B357" s="4" t="s">
+      <c r="B357" t="s">
         <v>39</v>
       </c>
       <c r="C357">
@@ -10814,10 +10857,10 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A358" s="4" t="s">
+      <c r="A358" t="s">
         <v>30</v>
       </c>
-      <c r="B358" s="4" t="s">
+      <c r="B358" t="s">
         <v>40</v>
       </c>
       <c r="C358">
@@ -10825,10 +10868,10 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A359" s="4" t="s">
+      <c r="A359" t="s">
         <v>30</v>
       </c>
-      <c r="B359" s="4" t="s">
+      <c r="B359" t="s">
         <v>41</v>
       </c>
       <c r="C359">
@@ -10836,10 +10879,10 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A360" s="4" t="s">
+      <c r="A360" t="s">
         <v>30</v>
       </c>
-      <c r="B360" s="4" t="s">
+      <c r="B360" t="s">
         <v>42</v>
       </c>
       <c r="C360">
@@ -10847,10 +10890,10 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A361" s="4" t="s">
+      <c r="A361" t="s">
         <v>30</v>
       </c>
-      <c r="B361" s="4" t="s">
+      <c r="B361" t="s">
         <v>43</v>
       </c>
       <c r="C361">
@@ -10869,7 +10912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39F063E-3A0B-4488-AC5F-6E2CFA253D7F}">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -10879,17 +10922,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
@@ -10900,7 +10943,7 @@
       <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>64.408499999999989</v>
       </c>
     </row>
@@ -10908,7 +10951,7 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>66.703066666666672</v>
       </c>
     </row>
@@ -10916,7 +10959,7 @@
       <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>68.539233333333343</v>
       </c>
     </row>
@@ -10924,7 +10967,7 @@
       <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>69.737599999999986</v>
       </c>
     </row>
@@ -10932,7 +10975,7 @@
       <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>70.77503333333334</v>
       </c>
     </row>
@@ -10940,7 +10983,7 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>71.937766666666704</v>
       </c>
     </row>
@@ -10948,7 +10991,7 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>72.806399999999982</v>
       </c>
     </row>
@@ -10956,7 +10999,7 @@
       <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>73.642166666666682</v>
       </c>
     </row>
@@ -10964,7 +11007,7 @@
       <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>74.440100000000015</v>
       </c>
     </row>
@@ -10972,7 +11015,7 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>75.505166666666668</v>
       </c>
     </row>
@@ -10980,7 +11023,7 @@
       <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>76.70059999999998</v>
       </c>
     </row>
@@ -10988,7 +11031,7 @@
       <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>77.648599999999988</v>
       </c>
     </row>
@@ -10996,7 +11039,7 @@
       <c r="C17" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>71.903686111111028</v>
       </c>
     </row>
